--- a/data/long_bre/P18_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_2-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>34,97%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,59</t>
+          <t>-7,92; 2,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 14,39</t>
+          <t>2,09; 15,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,59</t>
+          <t>-5,82; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 18,51</t>
+          <t>-16,78; 4,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 64,29</t>
+          <t>-37,77; 13,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 28,47</t>
+          <t>6,62; 69,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-18,53; 26,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,43; 18,03</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-13,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 4,19</t>
+          <t>-7,61; 6,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 2,62</t>
+          <t>-14,06; 0,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 5,0</t>
+          <t>-8,73; 5,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 10,8</t>
+          <t>-7,81; 10,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 5,22</t>
+          <t>-16,52; 18,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 10,6</t>
+          <t>-24,74; 1,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; 11,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 24,67</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 11,56</t>
+          <t>-4,26; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 2,69</t>
+          <t>-11,05; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,53</t>
+          <t>-3,73; 6,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 32,13</t>
+          <t>-4,04; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 15,44</t>
+          <t>-9,28; 27,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 28,15</t>
+          <t>-40,78; 17,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 32,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; 47,72</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 39,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 19,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 8,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-6,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-15,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 12,36</t>
+          <t>-8,39; 5,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 7,32</t>
+          <t>-9,78; 5,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 6,99</t>
+          <t>-10,62; 2,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 34,37</t>
+          <t>-8,37; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 17,97</t>
+          <t>-34,47; 33,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 15,71</t>
+          <t>-24,47; 18,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-35,26; 9,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 39,51</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,29%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 5,15</t>
+          <t>-4,29; 10,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,74</t>
+          <t>-9,44; 6,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 11,32</t>
+          <t>-8,5; 6,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 14,28</t>
+          <t>-9,96; 8,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 60,13</t>
+          <t>-9,84; 30,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 56,88</t>
+          <t>-18,2; 16,89</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,1; 13,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 17,56</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 13,41</t>
+          <t>-9,68; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 20,12</t>
+          <t>-3,55; 9,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 1,62</t>
+          <t>-0,69; 11,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 129,79</t>
+          <t>-6,57; 8,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 84,12</t>
+          <t>-20,91; 14,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 7,11</t>
+          <t>-16,86; 57,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 56,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-24,27; 41,81</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 10,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 17,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 23,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 35,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 54,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 75,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>-25,92</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-29,45%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-33,61%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-57,63%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 19,78</t>
+          <t>-8,85; 12,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 4,76</t>
+          <t>-7,75; 21,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 12,07</t>
+          <t>-24,9; 1,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 59,32</t>
+          <t>-48,22; -8,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 32,18</t>
+          <t>-39,53; 111,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 57,19</t>
+          <t>-18,49; 96,34</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-60,13; 7,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-76,85; -22,5</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>19,23</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>56,74%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,11</t>
+          <t>-18,34; 11,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 8,34</t>
+          <t>-19,74; 13,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,27</t>
+          <t>-1,13; 26,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 21,06</t>
+          <t>-0,64; 35,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 29,8</t>
+          <t>-38,18; 40,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 4,99</t>
+          <t>-35,22; 38,16</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 81,81</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 155,13</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>-25,99%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,6</t>
+          <t>-15,02; 17,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,84</t>
+          <t>-19,9; 6,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,05</t>
+          <t>-13,58; 10,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 12,05</t>
+          <t>-9,6; 21,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 6,45</t>
+          <t>-29,52; 50,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 10,99</t>
+          <t>-61,99; 44,54</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-37,96; 49,04</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-34,48; 160,38</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 16,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 30,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-7,45%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-15,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 2,39</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 8,73</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 1,59</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 1,2</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-26,63; 15,05</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 31,69</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 6,14</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-32,64; 5,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 5,36</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 1,51</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 4,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 7,07</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 14,27</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-17,13; 3,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 10,38</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 16,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 6,23</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,31</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 6,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 7,63</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 16,12</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 17,51</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 29,73</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 35,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
